--- a/output.xlsx
+++ b/output.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cycling Road competition,2011</t>
+          <t>Cycling Road</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wrestling Greco-Roman competition,2011</t>
+          <t>Wrestling Greco-Roman</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wrestling Greco-Roman competition,2012</t>
+          <t>Wrestling Greco-Roman</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cycling Track competition,2011</t>
+          <t>Cycling Track</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mountain Bike competition,2011</t>
+          <t>Mountain Bike</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Swimming competition,2011</t>
+          <t>Swimming</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Karate competition,2011</t>
+          <t>Karate</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Water Polo competition,2011</t>
+          <t>Water Polo</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Boxing competition,2011</t>
+          <t>Boxing</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Shooting competition,2011</t>
+          <t>Shooting</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Boxing competition,2011</t>
+          <t>Boxing</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Archery competition,2011</t>
+          <t>Archery</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sailing competition,2011</t>
+          <t>Sailing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Mountain Bike competition,2011</t>
+          <t>Mountain Bike</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Surfing competition,2011</t>
+          <t>Surfing</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cycling Track competition,2011</t>
+          <t>Cycling Track</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Surfing competition,2011</t>
+          <t>Surfing</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Canoe Sprint competition,2012</t>
+          <t>Canoe Sprint</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Skateboarding competition,2011</t>
+          <t>Skateboarding</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Triathlon competition,2012</t>
+          <t>Triathlon</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Diving competition,2011</t>
+          <t>Diving</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Sailing competition,2011</t>
+          <t>Sailing</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Weightlifting competition,2011</t>
+          <t>Weightlifting</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Surfing competition,2011</t>
+          <t>Surfing</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Weightlifting competition,2011</t>
+          <t>Weightlifting</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Cycling Road competition,2011</t>
+          <t>Cycling Road</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Diving competition,2011</t>
+          <t>Diving</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Hockey competition,2011</t>
+          <t>Hockey</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Mountain Bike competition,2012</t>
+          <t>Mountain Bike</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Archery competition,2011</t>
+          <t>Archery</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Climbing competition,2011</t>
+          <t>Climbing</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Triathlon competition,2012</t>
+          <t>Triathlon</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Climbing competition,2011</t>
+          <t>Climbing</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Skateboarding competition,2011</t>
+          <t>Skateboarding</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Canoe Sprint competition,2012</t>
+          <t>Canoe Sprint</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Canoe Sprint competition,2011</t>
+          <t>Canoe Sprint</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Baseball competition,2011</t>
+          <t>Baseball</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Mountain Bike competition,2012</t>
+          <t>Mountain Bike</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Wrestling Greco-Roman competition,2011</t>
+          <t>Wrestling Greco-Roman</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Wrestling Greco-Roman competition,2012</t>
+          <t>Wrestling Greco-Roman</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Climbing competition,2011</t>
+          <t>Climbing</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Mountain Bike competition,2012</t>
+          <t>Mountain Bike</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Tennis competition,2011</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Swimming competition,2011</t>
+          <t>Swimming</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Canoe Sprint competition,2012</t>
+          <t>Canoe Sprint</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Baseball competition,2011</t>
+          <t>Baseball</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Triathlon competition,2011</t>
+          <t>Triathlon</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Swimming competition,2011</t>
+          <t>Swimming</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Shooting competition,2011</t>
+          <t>Shooting</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Fencing competition,2011</t>
+          <t>Fencing</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Shooting competition,2011</t>
+          <t>Shooting</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Water Polo competition,2011</t>
+          <t>Water Polo</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -12982,7 +12982,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Canoe Sprint competition,2011</t>
+          <t>Canoe Sprint</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Basketball competition,2011</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rowing</t>
+          <t>Rowing competition,2011</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Karate</t>
+          <t>Karate competition,2011</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Boxing</t>
+          <t>Boxing competition,2011</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Weightlifting</t>
+          <t>Weightlifting competition,2012</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Boxing</t>
+          <t>Boxing competition,2011</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Basketball competition,2011</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Badminton</t>
+          <t>Badminton competition,2011</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Triathlon</t>
+          <t>Triathlon competition,2012</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Weightlifting</t>
+          <t>Weightlifting competition,2011</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Weightlifting</t>
+          <t>Weightlifting competition,2011</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Handball</t>
+          <t>Handball competition,2011</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Judo</t>
+          <t>Judo competition,2011</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Badminton</t>
+          <t>Badminton competition,2011</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Hockey</t>
+          <t>Hockey competition,2011</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Softball</t>
+          <t>Softball competition,2011</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Athletics</t>
+          <t>Athletics competition,2011</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Triathlon</t>
+          <t>Triathlon competition,2012</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Volleyball competition,2011</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Taekwondo</t>
+          <t>Taekwondo competition,2011</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Taekwondo</t>
+          <t>Taekwondo competition,2012</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Volleyball competition,2011</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Weightlifting</t>
+          <t>Weightlifting competition,2012</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Taekwondo</t>
+          <t>Taekwondo competition,2011</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Rowing</t>
+          <t>Rowing competition,2011</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Badminton</t>
+          <t>Badminton competition,2011</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Tennis competition,2011</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Triathlon</t>
+          <t>Triathlon competition,2011</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Softball</t>
+          <t>Softball competition,2011</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Rowing</t>
+          <t>Rowing competition,2011</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -13210,7 +13210,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Judo</t>
+          <t>Judo competition,2011</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
